--- a/data/PhpCollab.xlsx
+++ b/data/PhpCollab.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>Test User 5</t>
+  </si>
+  <si>
+    <t>TestProjectCreationPageFactory</t>
+  </si>
+  <si>
+    <t>LetsNav 1</t>
+  </si>
+  <si>
+    <t>MyProject 1</t>
+  </si>
+  <si>
+    <t>Test7 / Test User 7</t>
+  </si>
+  <si>
+    <t>Test6 / Test User 6</t>
+  </si>
+  <si>
+    <t>Test6</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Test User 7</t>
+  </si>
+  <si>
+    <t>Test User 6</t>
   </si>
 </sst>
 </file>
@@ -475,15 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -592,6 +619,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -600,16 +661,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,6 +716,34 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
